--- a/Test Questions.xlsx
+++ b/Test Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noume\Desktop\QuizzApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E01E9-F8CC-4D5F-B48A-35DFA4CB1967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B638981-C095-492E-9A97-629C1DAFDB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{031A703C-0A0D-479B-9183-8C1A5E271541}"/>
+    <workbookView xWindow="22932" yWindow="-2736" windowWidth="30936" windowHeight="16896" xr2:uid="{031A703C-0A0D-479B-9183-8C1A5E271541}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="915">
   <si>
     <t>QuestionID</t>
   </si>
@@ -1804,24 +1804,6 @@
 Therefore, the best option for purchasing a third-party virtual security appliance that you will deploy to an Azure subscription is C. Azure Marketplace.</t>
   </si>
   <si>
-    <t>A. Azure Functions
-B. Azure Logic Apps
-1. Executes code :
-2. Is always stateful :
-3. Runs only in the cloud :</t>
-  </si>
-  <si>
-    <t>A1A2B3</t>
-  </si>
-  <si>
-    <t>Box 1: Azure Functions -
-Azure Functions allows you to implement your system's logic into readily available blocks of code called "functions". Different functions can run anytime you need to respond to critical events.
-Box 2: Azure Functions -
-Azure Logic Apps can have multiple stateful and stateless workflows.
-Box 3: Azure Logic Apps -
-Azure Logic Apps is a cloud-based platform for creating and running automated workflows that integrate your apps, data, services, and systems.</t>
-  </si>
-  <si>
     <t>A. Azure Blueprints
 B. Azure Policy
 C. Azure resource group
@@ -2044,14 +2026,6 @@
     <t>Azure Data Warehouse (now known as Azure Synapse Analytics) is a PaaS offering from Microsoft. As with all PaaS services from Microsoft, SQL Data
 Warehouse offers an availability SLA of 99.9%. Microsoft can offer 99.9% availability because it has high availability features built into the platform.
 References:</t>
-  </si>
-  <si>
-    <t>This question requires that you evaluate the underlined text to determine if it is correct.
-One of the benefits of Azure SQL Data Warehouse is that high availability is built into the platform.
-Instructions: Review the underlined text. If it makes the statement correct, select `No change is needed`. If the statement is incorrect, select the answer choice that makes the statement correct.A. No change is needed
-B. automatic scaling
-C. data compression
-D. versioning</t>
   </si>
   <si>
     <t>After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.
@@ -2288,23 +2262,6 @@
 OPenshource: Insight</t>
   </si>
   <si>
-    <t>You need to identify which blades in the Azure portal must be used to perform the following tasks:
-- View security recommendations.
-- Monitor the health of Azure services.
-- Browse available virtual machine images.
-Which blade should you identify for each task?
-A. Monitor the health of Azure services.
-B. Browse available VM images.
-C. View security recommandations.
-1. Monitor
-2. Subscriptions
-3. Marketplace
-4. Advisor</t>
-  </si>
-  <si>
-    <t>A1B3C4</t>
-  </si>
-  <si>
     <t>Box 1:
 Azure Monitor is used to monitor the health of Azure services.
 Azure Monitor maximizes the availability and performance of your applications and services by delivering a comprehensive solution for collecting, analyzing, and acting on telemetry from your cloud and on-premises environments. It helps you understand how your applications are performing and proactively identifies issues affecting them and the resources they depend on.
@@ -2553,22 +2510,6 @@
 Does this meet the goal?
 A. Yes
 B. No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Several support engineers plan to manage Azure by using the computers shown in the following table.
-You need to identify which Azure management tools can be used from each computer.
-What should you identify for each computer? To answer, select the appropriate options in the answer area.
-A. Computer1 : Windows 10
-B. Computer2: Ubuntu
-C. Computer3: MacOS Mojave
-1. The Azure CLI and the Azure portal
-2. The Azure portal and Azure Powershell
-3. The Azure CLI and Azure Powershell
-4. The Azure CLI, the Azure portal and Azure Powershell
-</t>
-  </si>
-  <si>
-    <t>A4B4C4</t>
   </si>
   <si>
     <t>Previously, the Azure CLI (or x-plat CLI) was the only option for managing Azure subscriptions and resources from the command-line on Linux and macOS. Now with the open source and cross-platform release of PowerShell, you'll be able to manage all your Azure resources from Windows, Linux and macOS using your tool of choice, either the Azure CLI or Azure PowerShell cmdlets.
@@ -3365,25 +3306,6 @@
 You have the option of paying for DDoS Standard. It has several advantages over the basic service, including logging, alerting, and telemetry. DDoS Standard can generate reports that contain details of attempted attacks as required in this question.</t>
   </si>
   <si>
-    <t>You plan to implement several security services for an Azure environment. You need to identify which Azure services must be used to meet the following security requirements:
-- Monitor threats by using sensors
-- Enforce Azure Multi-Factor Authentication (MFA) based on a condition
-Which Azure service should you identify for each requirement? To answer, select the appropriate options in the answer area.
-Monitor threats by using sensors:
-A. Azure Monitor
-B. Azure Security Center
-C. Azure Active Directory (Azure AD) Identity Protection
-D. Azure Advanced Threat Protection (ATP)
-Enforce Azure MFA based on a condition:
-A. Azure Monitor
-B. Azure Security Center
-C. Azure Active Directory (Azure AD) Identity Protection
-D. Azure Advanced Threat Protection (ATP)</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>Box 1:
 To monitor threats by using sensors, you would use Azure Advanced Threat Protection (ATP).
 Azure Advanced Threat Protection (ATP) is a cloud-based security solution that leverages your on-premises Active Directory signals to identify, detect, and investigate advanced threats, compromised identities, and malicious insider actions directed at your organization.
@@ -5969,6 +5891,77 @@
     <t>1. Azure Arc can manage physical servers that run Linux. Yes (Y)
 2. Azure Arc can manage Azure Kubernetes Service (AKS) clusters at scale. No (N)
 3. Azure Arc can manage a third-party database solution hosted outside of Azure. No (N)</t>
+  </si>
+  <si>
+    <t>A. Azure Functions
+B. Azure Logic Apps
+1. Executes code and is always stateful
+2. Runs only in the cloud</t>
+  </si>
+  <si>
+    <t>A1B2</t>
+  </si>
+  <si>
+    <t>Box 1: Azure Functions -
+Azure Functions allows you to implement your system's logic into readily available blocks of code called "functions". Different functions can run anytime you need to respond to critical events.
+Azure Logic Apps can have multiple stateful and stateless workflows.
+Box 2: Azure Logic Apps -
+Azure Logic Apps is a cloud-based platform for creating and running automated workflows that integrate your apps, data, services, and systems.</t>
+  </si>
+  <si>
+    <t>A1C2D3</t>
+  </si>
+  <si>
+    <t>You need to identify which blades in the Azure portal must be used to perform the following tasks:
+- View security recommendations.
+- Monitor the health of Azure services.
+- Browse available virtual machine images.
+Which blade should you identify for each task?
+A. Monitor
+B. Subscriptions
+C. Marketplace
+D. Advisor
+1. Monitor the health of Azure services.
+2. Browse available VM images.
+3. View security recommandations.</t>
+  </si>
+  <si>
+    <t>C2D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You plan to implement several security services for an Azure environment. You need to identify which Azure services must be used to meet the following security requirements:
+- Monitor threats by using sensors
+- Enforce Azure Multi-Factor Authentication (MFA) based on a condition
+Which Azure service should you identify for each requirement? To answer, select the appropriate options in the answer area.
+A. Azure Monitor
+B. Azure Security Center
+C. Azure Active Directory (Azure AD) Identity Protection
+D. Azure Advanced Threat Protection (ATP)
+1. Monitor threats by using sensors
+2. Enforce Azure MFA based on a condition
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several support engineers plan to manage Azure by using the computers shown in the following table.
+You need to identify which Azure management tools can be used from each computer.
+What should you identify for each computer? To answer, select the appropriate options in the answer area.
+- Computer1 : Windows 10
+- Computer2: Ubuntu
+- Computer3: MacOS Mojave
+A. The Azure CLI and the Azure portal
+B. The Azure portal and Azure Powershell
+C. The Azure CLI and Azure Powershell
+D. The Azure CLI, the Azure portal and Azure Powershell
+</t>
+  </si>
+  <si>
+    <t>This question requires that you evaluate the underlined text to determine if it is correct.
+One of the benefits of Azure SQL Data Warehouse is that high availability is built into the platform.
+Instructions: Review the underlined text. If it makes the statement correct, select `No change is needed`. If the statement is incorrect, select the answer choice that makes the statement correct.
+A. No change is needed
+B. automatic scaling
+C. data compression
+D. versioning</t>
   </si>
 </sst>
 </file>
@@ -6040,10 +6033,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6382,17 +6375,17 @@
   <dimension ref="A1:E463"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A391" sqref="A391"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="99.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="88" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6409,7 +6402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6427,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -6446,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>3</v>
@@ -6465,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6484,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6503,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6522,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6541,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6560,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6579,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6598,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6617,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6636,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6655,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6674,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6693,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6712,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6731,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6750,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6769,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6788,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6807,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6826,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6845,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6864,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6883,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6902,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6921,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6940,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6959,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -6978,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -6997,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7016,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7035,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7054,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7073,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7092,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7111,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7130,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7149,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7168,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7187,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7206,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7225,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7244,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7263,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7282,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7301,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7320,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7339,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7358,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7377,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7396,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7415,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7434,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7453,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7472,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7491,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7510,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7529,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7548,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7567,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7586,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7605,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7624,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7643,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -7662,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="3">A67+1</f>
         <v>67</v>
@@ -7681,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -7700,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -7719,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -7738,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -7757,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -7776,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -7795,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -7814,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -7833,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -7853,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -7872,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -7892,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -7912,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -7932,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -7952,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -7971,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -7990,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -8009,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -8029,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -8048,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -8068,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -8087,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -8107,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -8126,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -8145,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -8164,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -8183,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -8203,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -8223,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -8242,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -8261,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -8280,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -8299,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -8318,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -8337,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -8356,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -8375,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -8394,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -8413,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -8432,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -8451,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -8470,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -8489,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -8508,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -8527,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -8546,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -8565,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -8584,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -8603,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -8622,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -8641,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -8660,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -8679,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -8698,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -8717,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -8736,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -8755,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -8774,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -8793,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -8812,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -8831,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -8850,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -8869,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -8888,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="7">A131+1</f>
         <v>131</v>
@@ -8908,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="7"/>
         <v>132</v>
@@ -8927,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="7"/>
         <v>133</v>
@@ -8946,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="7"/>
         <v>134</v>
@@ -8965,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="7"/>
         <v>135</v>
@@ -8984,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="7"/>
         <v>136</v>
@@ -9003,45 +8996,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="7"/>
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>286</v>
+        <v>906</v>
       </c>
       <c r="C138" t="s">
-        <v>287</v>
+        <v>907</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>288</v>
+        <v>908</v>
       </c>
       <c r="E138">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E139">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="7"/>
         <v>139</v>
@@ -9053,267 +9046,267 @@
         <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E141">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s">
         <v>55</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E143">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C144" t="s">
         <v>80</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E144">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s">
         <v>80</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E145">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="7"/>
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E146">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E147">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C148" t="s">
         <v>55</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E148">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="7"/>
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C149" t="s">
         <v>55</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="7"/>
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s">
         <v>277</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E150">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C151" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E151">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C152" t="s">
         <v>86</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C153" t="s">
         <v>55</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E153">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
@@ -9326,260 +9319,260 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>323</v>
+        <v>914</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E155">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E156">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="7"/>
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E157">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="7"/>
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E158">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C159" t="s">
         <v>80</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E159">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C160" t="s">
         <v>74</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E160">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C161" t="s">
         <v>130</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E161">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="7"/>
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C162" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E162">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="7"/>
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E163">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s">
         <v>80</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E164">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="7"/>
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E165">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E166">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="7"/>
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C167" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E167">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -9593,13 +9586,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="7"/>
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C169" t="s">
         <v>17</v>
@@ -9613,2933 +9606,2933 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="7"/>
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E170">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C171" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E171">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="7"/>
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>359</v>
+        <v>910</v>
       </c>
       <c r="C172" t="s">
-        <v>360</v>
+        <v>909</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E172">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="7"/>
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E173">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="7"/>
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C174" t="s">
         <v>55</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E174">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="7"/>
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
         <v>55</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E175">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C176" t="s">
         <v>195</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E176">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C177" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E177">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="7"/>
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E178">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="7"/>
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C179" t="s">
         <v>141</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E179">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="7"/>
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C180" t="s">
         <v>55</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E180">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C181" t="s">
         <v>122</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E181">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="7"/>
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C182" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E182">
         <f>IF(ISBLANK(C182),"",0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="7"/>
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E183">
         <f t="shared" ref="E183:E246" si="9">IF(ISBLANK(C183),"",0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C184" t="s">
         <v>109</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E184">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="7"/>
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E185">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="7"/>
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E186">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E187">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="7"/>
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>392</v>
+        <v>913</v>
       </c>
       <c r="C188" t="s">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E188">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="7"/>
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C189" t="s">
         <v>55</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E189">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="7"/>
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C190" t="s">
         <v>55</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E190">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C191" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E191">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="7"/>
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E192">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C193" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E193">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="7"/>
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E194">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C195" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E195">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="10">A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C196" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E196">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C197" t="s">
         <v>17</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E197">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="10"/>
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C198" t="s">
         <v>74</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E198">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E199">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="10"/>
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C200" t="s">
         <v>55</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E200">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C201" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E201">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C202" t="s">
         <v>77</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E202">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="10"/>
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C203" t="s">
         <v>122</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E203">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="10"/>
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C204" t="s">
         <v>55</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E204">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="10"/>
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C205" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E205">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="10"/>
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C206" t="s">
         <v>130</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E206">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="10"/>
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E207">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E208">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="10"/>
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E209">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="10"/>
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E210">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E211">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="10"/>
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C212" t="s">
         <v>74</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E212">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E213">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C214" t="s">
         <v>168</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E214">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="10"/>
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C215" t="s">
         <v>17</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E215">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E216">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E217">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E218">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="10"/>
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C219" t="s">
         <v>17</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E219">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C220" t="s">
         <v>55</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E220">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C221" t="s">
         <v>17</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E221">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="10"/>
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C222" t="s">
         <v>55</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E222">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E223">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="10"/>
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C224" t="s">
         <v>168</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E224">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="10"/>
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C225" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E225">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C226" t="s">
         <v>141</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E226">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="10"/>
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C227" t="s">
         <v>77</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E227">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="10"/>
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C228" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E228">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E229">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E230">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C231" t="s">
         <v>17</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E231">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E232">
         <f>IF(ISBLANK(C232),"",0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="10"/>
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C233" t="s">
         <v>80</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E233">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C234" t="s">
         <v>55</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E234">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C235" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E235">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E236">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="10"/>
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C237" t="s">
         <v>17</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E237">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C238" t="s">
         <v>80</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E238">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="10"/>
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C239" t="s">
         <v>80</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E239">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C240" t="s">
         <v>80</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E240">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C241" t="s">
         <v>17</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E241">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="10"/>
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E242">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C243" t="s">
         <v>74</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E243">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C244" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="E244">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="10"/>
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C245" t="s">
         <v>17</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E245">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C246" t="s">
         <v>17</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E246">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C247" t="s">
         <v>80</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E247">
         <f t="shared" ref="E247:E310" si="11">IF(ISBLANK(C247),"",0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C248" t="s">
         <v>17</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E248">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="10"/>
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C249" t="s">
         <v>80</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E249">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>504</v>
+        <v>912</v>
       </c>
       <c r="C250" t="s">
-        <v>505</v>
+        <v>911</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E250">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C251" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="E251">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C252" t="s">
         <v>80</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E252">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C253" t="s">
         <v>77</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E253">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C254" t="s">
         <v>80</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E254">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="10"/>
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C255" t="s">
         <v>17</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E255">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C256" t="s">
         <v>17</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E256">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C257" t="s">
         <v>17</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E257">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C258" t="s">
         <v>17</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E258">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="10"/>
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C259" t="s">
         <v>168</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E259">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="12">A259+1</f>
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C260" t="s">
         <v>17</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E260">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="12"/>
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E261">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="12"/>
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C262" t="s">
         <v>17</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E262">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="12"/>
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C263" t="s">
         <v>17</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E263">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="12"/>
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C264" t="s">
         <v>80</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E264">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="12"/>
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C265" t="s">
         <v>168</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="E265">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="12"/>
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C266" t="s">
         <v>80</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E266">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="12"/>
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C267" t="s">
         <v>55</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E267">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C268" t="s">
         <v>55</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E268">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C269" t="s">
         <v>109</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E269">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C270" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="E270">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C271" t="s">
         <v>127</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E271">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C272" t="s">
         <v>80</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E272">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C273" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E273">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E274">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E275">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C276" t="s">
         <v>168</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E276">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C277" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E277">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C278" t="s">
         <v>80</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="E278">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C279" t="s">
         <v>17</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E279">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E280">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C281" t="s">
         <v>55</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="E281">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E282">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C283" t="s">
         <v>55</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E283">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C284" t="s">
         <v>168</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E284">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C285" t="s">
         <v>55</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E285">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C286" t="s">
         <v>127</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E286">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C287" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E287">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C288" t="s">
         <v>277</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E288">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C289" t="s">
         <v>55</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E289">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C290" t="s">
         <v>80</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E290">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C291" t="s">
         <v>55</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E291">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C292" t="s">
         <v>80</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E292">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C293" t="s">
         <v>168</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E293">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E294">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C295" t="s">
         <v>55</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E295">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C296" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E296">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C297" t="s">
         <v>17</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E297">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E298">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C299" t="s">
         <v>17</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E299">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C300" t="s">
         <v>55</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E300">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C301" t="s">
         <v>168</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E301">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="12"/>
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C302" t="s">
         <v>168</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E302">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="12"/>
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C303" t="s">
         <v>74</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E303">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="12"/>
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C304" t="s">
         <v>168</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E304">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="12"/>
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C305" t="s">
         <v>80</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E305">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="12"/>
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C306" t="s">
         <v>74</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E306">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A307">
         <f t="shared" si="12"/>
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E307">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="12"/>
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C308" t="s">
         <v>17</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E308">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="12"/>
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C309" t="s">
         <v>127</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E309">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="12"/>
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C310" t="s">
         <v>17</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="E310">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="12"/>
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C311" t="s">
         <v>17</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E311">
         <f t="shared" ref="E311:E374" si="13">IF(ISBLANK(C311),"",0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="12"/>
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E312">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="12"/>
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C313" t="s">
         <v>17</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E313">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="12"/>
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C314" t="s">
         <v>17</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E314">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="12"/>
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C315" t="s">
         <v>55</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E315">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="12"/>
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C316" t="s">
         <v>252</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="E316">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="12"/>
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C317" t="s">
         <v>80</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E317">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="12"/>
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E318">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="12"/>
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C319" t="s">
         <v>17</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E319">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="12"/>
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E320">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="12"/>
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E321">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A322">
         <f t="shared" si="12"/>
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C322" t="s">
         <v>252</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E322">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="12"/>
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C323" t="s">
         <v>109</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E323">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" ref="A324:A387" si="14">A323+1</f>
         <v>323</v>
@@ -12551,1980 +12544,1980 @@
         <v>74</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E324">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="14"/>
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C325" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E325">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="14"/>
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C326" t="s">
         <v>17</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E326">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="14"/>
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C327" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E327">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="14"/>
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E328">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="14"/>
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C329" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E329">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="14"/>
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C330" t="s">
         <v>55</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E330">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="14"/>
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C331" t="s">
         <v>252</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="E331">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A332">
         <f t="shared" si="14"/>
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C332" t="s">
         <v>77</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E332">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="14"/>
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E333">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="14"/>
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C334" t="s">
         <v>80</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E334">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="14"/>
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C335" t="s">
         <v>141</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="E335">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A336">
         <f t="shared" si="14"/>
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C336" t="s">
         <v>77</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E336">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A337">
         <f t="shared" si="14"/>
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C337" t="s">
         <v>127</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E337">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A338">
         <f t="shared" si="14"/>
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C338" t="s">
         <v>55</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E338">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A339">
         <f t="shared" si="14"/>
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C339" t="s">
         <v>55</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E339">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A340">
         <f t="shared" si="14"/>
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C340" t="s">
         <v>55</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E340">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A341">
         <f t="shared" si="14"/>
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C341" t="s">
         <v>109</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E341">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A342">
         <f t="shared" si="14"/>
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C342" t="s">
         <v>17</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E342">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A343">
         <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="C343" t="s">
         <v>55</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E343">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A344">
         <f t="shared" si="14"/>
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C344" t="s">
         <v>55</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E344">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="14"/>
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C345" t="s">
         <v>55</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E345">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="14"/>
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C346" t="s">
         <v>80</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="E346">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A347">
         <f t="shared" si="14"/>
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C347" t="s">
         <v>17</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E347">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A348">
         <f t="shared" si="14"/>
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C348" t="s">
         <v>55</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E348">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A349">
         <f t="shared" si="14"/>
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E349">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A350">
         <f t="shared" si="14"/>
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C350" t="s">
         <v>17</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E350">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A351">
         <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C351" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="E351">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A352">
         <f t="shared" si="14"/>
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C352" t="s">
         <v>17</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="E352">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="14"/>
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C353" t="s">
         <v>6</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="E353">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="14"/>
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C354" t="s">
         <v>109</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="E354">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="14"/>
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C355" t="s">
         <v>77</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E355">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="14"/>
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C356" t="s">
         <v>80</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="E356">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="14"/>
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C357" t="s">
         <v>109</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E357">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="14"/>
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C358" t="s">
         <v>17</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="E358">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="14"/>
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C359" t="s">
         <v>109</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="E359">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="14"/>
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C360" t="s">
         <v>17</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="E360">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C361" t="s">
         <v>74</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="E361">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="14"/>
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C362" t="s">
         <v>77</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E362">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="14"/>
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C363" t="s">
         <v>148</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="E363">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="14"/>
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C364" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E364">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="14"/>
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C365" t="s">
         <v>148</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="E365">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="14"/>
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C366" t="s">
         <v>55</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E366">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="14"/>
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C367" t="s">
         <v>127</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E367">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A368">
         <f t="shared" si="14"/>
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C368" t="s">
         <v>55</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="E368">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A369">
         <f t="shared" si="14"/>
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C369" t="s">
         <v>80</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E369">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A370">
         <f t="shared" si="14"/>
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E370">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A371">
         <f t="shared" si="14"/>
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E371">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A372">
         <f t="shared" si="14"/>
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C372" t="s">
         <v>17</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E372">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A373">
         <f t="shared" si="14"/>
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C373" t="s">
         <v>55</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E373">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A374">
         <f t="shared" si="14"/>
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E374">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A375">
         <f t="shared" si="14"/>
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C375" t="s">
         <v>80</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E375">
         <f t="shared" ref="E375:E438" si="15">IF(ISBLANK(C375),"",0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A376">
         <f t="shared" si="14"/>
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C376" t="s">
         <v>17</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E376">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A377">
         <f t="shared" si="14"/>
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C377" t="s">
         <v>17</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E377">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A378">
         <f t="shared" si="14"/>
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C378" t="s">
         <v>80</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E378">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A379">
         <f t="shared" si="14"/>
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C379" t="s">
         <v>17</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E379">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A380">
         <f t="shared" si="14"/>
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="C380" t="s">
         <v>77</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="E380">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A381">
         <f t="shared" si="14"/>
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="C381" t="s">
         <v>168</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E381">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A382">
         <f t="shared" si="14"/>
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C382" t="s">
         <v>17</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E382">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A383">
         <f t="shared" si="14"/>
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C383" t="s">
         <v>168</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E383">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A384">
         <f t="shared" si="14"/>
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C384" t="s">
         <v>55</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="E384">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A385">
         <f t="shared" si="14"/>
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C385" t="s">
         <v>6</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="E385">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A386">
         <f t="shared" si="14"/>
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C386" t="s">
         <v>109</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="E386">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A387">
         <f t="shared" si="14"/>
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="C387" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E387">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A388">
         <f t="shared" ref="A388:A451" si="16">A387+1</f>
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C388" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="E388">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A389">
         <f t="shared" si="16"/>
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C389" t="s">
         <v>80</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="E389">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A390">
         <f t="shared" si="16"/>
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="C390" t="s">
         <v>55</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E390">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A391" s="5">
+    <row r="391" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
         <f t="shared" si="16"/>
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C391" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="E391">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A392">
         <f t="shared" si="16"/>
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C392" t="s">
         <v>55</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="E392">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A393">
         <f t="shared" si="16"/>
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="C393" t="s">
         <v>17</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E393">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A394">
         <f t="shared" si="16"/>
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="C394" t="s">
         <v>80</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="E394">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A395">
         <f t="shared" si="16"/>
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C395" t="s">
         <v>127</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="E395">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A396">
         <f t="shared" si="16"/>
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C396" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="E396">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A397">
         <f t="shared" si="16"/>
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C397" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="E397">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A398">
         <f t="shared" si="16"/>
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C398" t="s">
         <v>80</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="E398">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A399">
         <f t="shared" si="16"/>
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C399" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E399">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A400">
         <f t="shared" si="16"/>
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C400" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="E400">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A401">
         <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C401" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="E401">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A402">
         <f t="shared" si="16"/>
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C402" t="s">
         <v>80</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="E402">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A403">
         <f t="shared" si="16"/>
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="C403" t="s">
         <v>6</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="E403">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A404">
         <f t="shared" si="16"/>
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C404" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="E404">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A405">
         <f t="shared" si="16"/>
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C405" t="s">
         <v>55</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E405">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A406">
         <f t="shared" si="16"/>
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="C406" t="s">
         <v>223</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="E406">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A407">
         <f t="shared" si="16"/>
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="C407" t="s">
         <v>6</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="E407">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A408">
         <f t="shared" si="16"/>
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C408" t="s">
         <v>80</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="E408">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A409">
         <f t="shared" si="16"/>
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C409" t="s">
         <v>6</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="E409">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A410">
         <f t="shared" si="16"/>
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C410" t="s">
         <v>6</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="E410">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A411">
         <f t="shared" si="16"/>
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C411" t="s">
         <v>55</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="E411">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A412">
         <f t="shared" si="16"/>
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C412" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E412">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A413">
         <f t="shared" si="16"/>
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C413" t="s">
         <v>55</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="E413">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A414">
         <f t="shared" si="16"/>
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C414" t="s">
         <v>17</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E414">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A415">
         <f t="shared" si="16"/>
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C415" t="s">
         <v>80</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E415">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A416">
         <f t="shared" si="16"/>
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C416" t="s">
         <v>127</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E416">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A417">
         <f t="shared" si="16"/>
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C417" t="s">
         <v>168</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E417">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A418">
         <f t="shared" si="16"/>
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C418" t="s">
         <v>141</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="E418">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A419">
         <f t="shared" si="16"/>
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C419" t="s">
         <v>168</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E419">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A420">
         <f t="shared" si="16"/>
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C420" t="s">
         <v>77</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E420">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A421">
         <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C421" t="s">
         <v>6</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E421">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A422">
         <f t="shared" si="16"/>
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C422" t="s">
         <v>55</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="E422">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A423">
         <f t="shared" si="16"/>
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="C423" t="s">
         <v>55</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="E423">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A424">
         <f t="shared" si="16"/>
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C424" t="s">
         <v>6</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E424">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A425">
         <f t="shared" si="16"/>
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C425" t="s">
         <v>17</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="E425">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A426">
         <f t="shared" si="16"/>
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C426" t="s">
         <v>17</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="E426">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A427">
         <f t="shared" si="16"/>
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C427" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E427">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A428">
         <f t="shared" si="16"/>
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C428" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="D428" s="1" t="str">
         <f t="shared" ref="D428:D429" si="17">_xlfn.CONCAT("Answer is ",C428,".")</f>
@@ -14535,13 +14528,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A429">
         <f t="shared" si="16"/>
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="C429" t="s">
         <v>77</v>
@@ -14555,222 +14548,222 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A430">
         <f t="shared" si="16"/>
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C430" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="E430">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A431">
         <f t="shared" si="16"/>
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C431" t="s">
         <v>55</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="E431">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A432">
         <f t="shared" si="16"/>
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C432" t="s">
         <v>77</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E432">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A433">
         <f t="shared" si="16"/>
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C433" t="s">
         <v>17</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E433">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A434">
         <f t="shared" si="16"/>
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C434" t="s">
         <v>80</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="E434">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A435">
         <f t="shared" si="16"/>
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="C435" t="s">
         <v>77</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E435">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A436">
         <f t="shared" si="16"/>
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C436" t="s">
         <v>252</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="E436">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A437">
         <f t="shared" si="16"/>
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C437" t="s">
         <v>6</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E437">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A438">
         <f t="shared" si="16"/>
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C438" t="s">
         <v>17</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E438">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A439">
         <f t="shared" si="16"/>
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C439" t="s">
         <v>80</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="E439">
         <f t="shared" ref="E439:E463" si="18">IF(ISBLANK(C439),"",0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A440">
         <f t="shared" si="16"/>
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C440" t="s">
         <v>55</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E440">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A441">
         <f t="shared" si="16"/>
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C441" t="s">
         <v>6</v>
@@ -14784,70 +14777,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A442">
         <f t="shared" si="16"/>
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E442">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A443">
         <f t="shared" si="16"/>
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="C443" t="s">
         <v>55</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E443">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A444">
         <f t="shared" si="16"/>
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C444" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="E444">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A445">
         <f t="shared" si="16"/>
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C445" t="s">
         <v>109</v>
@@ -14861,70 +14854,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A446">
         <f t="shared" si="16"/>
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C446" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="E446">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A447">
         <f t="shared" si="16"/>
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C447" t="s">
         <v>17</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E447">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A448">
         <f t="shared" si="16"/>
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C448" t="s">
         <v>55</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E448">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A449">
         <f t="shared" si="16"/>
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C449" t="s">
         <v>127</v>
@@ -14938,70 +14931,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A450">
         <f t="shared" si="16"/>
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="C450" t="s">
         <v>17</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="E450">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A451">
         <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="C451" t="s">
         <v>6</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="E451">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A452">
         <f t="shared" ref="A452:A463" si="19">A451+1</f>
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C452" t="s">
         <v>80</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="E452">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A453">
         <f t="shared" si="19"/>
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C453" t="s">
         <v>127</v>
@@ -15015,13 +15008,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A454">
         <f t="shared" si="19"/>
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="C454" t="s">
         <v>127</v>
@@ -15035,32 +15028,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A455">
         <f t="shared" si="19"/>
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="C455" t="s">
         <v>17</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="E455">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A456">
         <f t="shared" si="19"/>
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="C456" t="s">
         <v>109</v>
@@ -15074,13 +15067,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A457">
         <f t="shared" si="19"/>
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C457" t="s">
         <v>6</v>
@@ -15094,16 +15087,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A458">
         <f t="shared" si="19"/>
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C458" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D458" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15114,13 +15107,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A459">
         <f t="shared" si="19"/>
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C459" t="s">
         <v>77</v>
@@ -15134,13 +15127,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A460">
         <f t="shared" si="19"/>
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C460" t="s">
         <v>127</v>
@@ -15154,13 +15147,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A461">
         <f t="shared" si="19"/>
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C461" t="s">
         <v>168</v>
@@ -15174,16 +15167,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A462">
         <f t="shared" si="19"/>
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C462" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D462" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15194,19 +15187,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A463">
         <f t="shared" si="19"/>
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C463" t="s">
         <v>55</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="E463">
         <f t="shared" si="18"/>
@@ -15227,9 +15220,9 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNTA(Feuil1!B:B)-1</f>
         <v>462</v>
@@ -15237,49 +15230,49 @@
       <c r="B1">
         <v>462</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <f>A1/B1</f>
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Test Questions.xlsx
+++ b/Test Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noume\Desktop\QuizzApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B638981-C095-492E-9A97-629C1DAFDB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03F3D91-6699-470F-AD6E-9366B3682AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2736" windowWidth="30936" windowHeight="16896" xr2:uid="{031A703C-0A0D-479B-9183-8C1A5E271541}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{031A703C-0A0D-479B-9183-8C1A5E271541}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -640,19 +640,6 @@
 - A PaaS solution that hosts web apps in Azure provides full control of the operating systems that host applications. (Y/N)
 - A PaaS solution that hosts web apps in Azure provides the ability to scale the platform automatically. (Y/N)
 - A PaaS solution that hosts web apps in Azure provides professional development services to continuously add features to custom applications. (Y/N)</t>
-  </si>
-  <si>
-    <t>Azure VM :
-A. IaaS
-B. PaaS
-C. SaaS
-Azure SQL Database :
-A. IaaS
-B. PaaS
-C. SaaS</t>
-  </si>
-  <si>
-    <t>AB</t>
   </si>
   <si>
     <t>Azure virtual machines are Infrastructure as a Service (IaaS).
@@ -5962,6 +5949,23 @@
 B. automatic scaling
 C. data compression
 D. versioning</t>
+  </si>
+  <si>
+    <t>Azure VM :
+A. IaaS
+B. PaaS
+C. SaaS
+Azure SQL Database :
+D. IaaS
+E. PaaS
+F. SaaS</t>
+  </si>
+  <si>
+    <t>All Azure services that are in public preview are […].
+A. provided without any documentation. 
+B. only configurable from Azure CLI
+C. excluded from the Service Level Agreements. 
+D. only configurable from the Azure portal.</t>
   </si>
 </sst>
 </file>
@@ -6375,8 +6379,8 @@
   <dimension ref="A1:E463"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7262,13 +7266,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
@@ -7281,13 +7285,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
@@ -7300,13 +7304,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
@@ -7319,13 +7323,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
@@ -7338,13 +7342,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
@@ -7357,13 +7361,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
@@ -7376,13 +7380,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
@@ -7395,13 +7399,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
@@ -7414,13 +7418,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
@@ -7433,13 +7437,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -7452,13 +7456,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -7471,13 +7475,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
@@ -7490,13 +7494,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
@@ -7509,13 +7513,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
@@ -7528,13 +7532,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
@@ -7547,13 +7551,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
@@ -7566,13 +7570,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
@@ -7585,13 +7589,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
@@ -7604,13 +7608,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
@@ -7623,13 +7627,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C66" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
@@ -7642,13 +7646,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="2">IF(ISBLANK(C67),"",0)</f>
@@ -7661,13 +7665,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
@@ -7680,13 +7684,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E69">
         <f t="shared" si="2"/>
@@ -7699,13 +7703,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
@@ -7718,13 +7722,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E71">
         <f t="shared" si="2"/>
@@ -7737,13 +7741,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E72">
         <f t="shared" si="2"/>
@@ -7756,13 +7760,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E73">
         <f t="shared" si="2"/>
@@ -7775,13 +7779,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
         <v>55</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E74">
         <f t="shared" si="2"/>
@@ -7794,13 +7798,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E75">
         <f t="shared" si="2"/>
@@ -7813,13 +7817,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E76">
         <f t="shared" si="2"/>
@@ -7832,10 +7836,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D77" s="1" t="str">
         <f>_xlfn.CONCAT("Answer is ",C77,".")</f>
@@ -7852,13 +7856,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E78">
         <f t="shared" si="2"/>
@@ -7871,10 +7875,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D79" s="1" t="str">
         <f t="shared" ref="D79:D82" si="4">_xlfn.CONCAT("Answer is ",C79,".")</f>
@@ -7891,7 +7895,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
         <v>74</v>
@@ -7911,10 +7915,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D81" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7931,7 +7935,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -7951,13 +7955,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C83" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E83">
         <f t="shared" si="2"/>
@@ -7970,13 +7974,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84">
         <f t="shared" si="2"/>
@@ -7995,7 +7999,7 @@
         <v>80</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E85">
         <f t="shared" si="2"/>
@@ -8008,7 +8012,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -8028,13 +8032,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C87" t="s">
         <v>55</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E87">
         <f t="shared" si="2"/>
@@ -8047,7 +8051,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -8067,13 +8071,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E89">
         <f t="shared" si="2"/>
@@ -8086,7 +8090,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -8106,13 +8110,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E91">
         <f t="shared" si="2"/>
@@ -8125,13 +8129,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C92" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E92">
         <f t="shared" si="2"/>
@@ -8144,13 +8148,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
         <v>80</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E93">
         <f t="shared" si="2"/>
@@ -8163,13 +8167,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E94">
         <f t="shared" si="2"/>
@@ -8182,10 +8186,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D95" s="1" t="str">
         <f t="shared" ref="D95:D96" si="5">_xlfn.CONCAT("Answer is ",C95,".")</f>
@@ -8202,7 +8206,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
         <v>80</v>
@@ -8222,13 +8226,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E97">
         <f t="shared" si="2"/>
@@ -8241,13 +8245,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
         <v>55</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E98">
         <f t="shared" si="2"/>
@@ -8260,13 +8264,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E99">
         <f t="shared" si="2"/>
@@ -8279,13 +8283,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E100">
         <f t="shared" si="2"/>
@@ -8298,13 +8302,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E101">
         <f t="shared" si="2"/>
@@ -8317,13 +8321,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
@@ -8336,13 +8340,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E103">
         <f t="shared" si="2"/>
@@ -8355,13 +8359,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
         <v>77</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E104">
         <f t="shared" si="2"/>
@@ -8374,13 +8378,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E105">
         <f t="shared" si="2"/>
@@ -8393,13 +8397,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C106" t="s">
-        <v>223</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E106">
         <f t="shared" si="2"/>
@@ -8412,13 +8416,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
         <v>80</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E107">
         <f t="shared" si="2"/>
@@ -8431,13 +8435,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E108">
         <f t="shared" si="2"/>
@@ -8450,13 +8454,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E109">
         <f t="shared" si="2"/>
@@ -8469,13 +8473,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E110">
         <f t="shared" si="2"/>
@@ -8488,13 +8492,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E111">
         <f t="shared" si="2"/>
@@ -8507,13 +8511,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C112" t="s">
         <v>55</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E112">
         <f t="shared" si="2"/>
@@ -8526,13 +8530,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E113">
         <f t="shared" si="2"/>
@@ -8545,13 +8549,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C114" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E114">
         <f t="shared" si="2"/>
@@ -8564,13 +8568,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E115">
         <f t="shared" si="2"/>
@@ -8583,13 +8587,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s">
         <v>80</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E116">
         <f t="shared" si="2"/>
@@ -8602,13 +8606,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C117" t="s">
-        <v>245</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E117">
         <f t="shared" si="2"/>
@@ -8621,13 +8625,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E118">
         <f t="shared" si="2"/>
@@ -8640,13 +8644,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E119">
         <f t="shared" si="2"/>
@@ -8659,13 +8663,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E120">
         <f t="shared" si="2"/>
@@ -8678,13 +8682,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
@@ -8697,13 +8701,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E122">
         <f t="shared" si="2"/>
@@ -8716,13 +8720,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E123">
         <f t="shared" si="2"/>
@@ -8735,13 +8739,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E124">
         <f t="shared" si="2"/>
@@ -8754,13 +8758,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E125">
         <f t="shared" si="2"/>
@@ -8773,13 +8777,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E126">
         <f t="shared" si="2"/>
@@ -8792,13 +8796,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E127">
         <f t="shared" si="2"/>
@@ -8811,13 +8815,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s">
         <v>77</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E128">
         <f t="shared" si="2"/>
@@ -8830,13 +8834,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E129">
         <f t="shared" si="2"/>
@@ -8849,13 +8853,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E130">
         <f t="shared" si="2"/>
@@ -8868,13 +8872,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C131" t="s">
         <v>77</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E181" si="6">IF(ISBLANK(C131),"",0)</f>
@@ -8887,10 +8891,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D132" s="1" t="str">
         <f>_xlfn.CONCAT("Answer is ",C132,".")</f>
@@ -8907,13 +8911,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E133">
         <f t="shared" si="6"/>
@@ -8926,13 +8930,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" t="s">
         <v>276</v>
       </c>
-      <c r="C134" t="s">
-        <v>278</v>
-      </c>
       <c r="D134" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E134">
         <f t="shared" si="6"/>
@@ -8945,13 +8949,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C135" t="s">
         <v>80</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E135">
         <f t="shared" si="6"/>
@@ -8964,13 +8968,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C136" t="s">
         <v>80</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E136">
         <f t="shared" si="6"/>
@@ -8983,13 +8987,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C137" t="s">
         <v>55</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E137">
         <f t="shared" si="6"/>
@@ -9002,13 +9006,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C138" t="s">
+        <v>905</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C138" t="s">
-        <v>907</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="E138">
         <f t="shared" si="6"/>
@@ -9021,13 +9025,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C139" t="s">
-        <v>287</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="E139">
         <f t="shared" si="6"/>
@@ -9040,13 +9044,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E140">
         <f t="shared" si="6"/>
@@ -9059,13 +9063,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C141" t="s">
-        <v>291</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E141">
         <f t="shared" si="6"/>
@@ -9078,13 +9082,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E142">
         <f t="shared" si="6"/>
@@ -9097,13 +9101,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C143" t="s">
         <v>55</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E143">
         <f t="shared" si="6"/>
@@ -9116,13 +9120,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C144" t="s">
         <v>80</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E144">
         <f t="shared" si="6"/>
@@ -9135,13 +9139,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C145" t="s">
         <v>80</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E145">
         <f t="shared" si="6"/>
@@ -9154,13 +9158,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E146">
         <f t="shared" si="6"/>
@@ -9173,13 +9177,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E147">
         <f t="shared" si="6"/>
@@ -9192,13 +9196,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C148" t="s">
         <v>55</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E148">
         <f t="shared" si="6"/>
@@ -9211,13 +9215,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s">
         <v>55</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E149">
         <f t="shared" si="6"/>
@@ -9230,13 +9234,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C150" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E150">
         <f t="shared" si="6"/>
@@ -9249,13 +9253,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C151" t="s">
-        <v>312</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="E151">
         <f t="shared" si="6"/>
@@ -9268,13 +9272,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C152" t="s">
         <v>86</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E152">
         <f t="shared" si="6"/>
@@ -9287,13 +9291,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C153" t="s">
         <v>55</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E153">
         <f t="shared" si="6"/>
@@ -9306,13 +9310,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E154">
         <f t="shared" si="6"/>
@@ -9325,13 +9329,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E155">
         <f t="shared" si="6"/>
@@ -9344,13 +9348,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E156">
         <f t="shared" si="6"/>
@@ -9363,13 +9367,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E157">
         <f t="shared" si="6"/>
@@ -9382,13 +9386,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E158">
         <f t="shared" si="6"/>
@@ -9401,13 +9405,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C159" t="s">
         <v>80</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E159">
         <f t="shared" si="6"/>
@@ -9420,13 +9424,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C160" t="s">
         <v>74</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E160">
         <f t="shared" si="6"/>
@@ -9439,13 +9443,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C161" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E161">
         <f t="shared" si="6"/>
@@ -9458,13 +9462,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C162" t="s">
+        <v>329</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C162" t="s">
-        <v>331</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="E162">
         <f t="shared" si="6"/>
@@ -9477,13 +9481,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C163" t="s">
+        <v>332</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C163" t="s">
-        <v>334</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="E163">
         <f t="shared" si="6"/>
@@ -9496,13 +9500,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C164" t="s">
         <v>80</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E164">
         <f t="shared" si="6"/>
@@ -9515,13 +9519,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E165">
         <f t="shared" si="6"/>
@@ -9534,13 +9538,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E166">
         <f t="shared" si="6"/>
@@ -9553,13 +9557,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C167" t="s">
+        <v>343</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C167" t="s">
-        <v>345</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E167">
         <f t="shared" si="6"/>
@@ -9572,7 +9576,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -9592,7 +9596,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C169" t="s">
         <v>17</v>
@@ -9612,13 +9616,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C170" t="s">
+        <v>348</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C170" t="s">
-        <v>350</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E170">
         <f t="shared" si="6"/>
@@ -9631,13 +9635,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" t="s">
+        <v>351</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C171" t="s">
-        <v>353</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E171">
         <f t="shared" si="6"/>
@@ -9650,13 +9654,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C172" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E172">
         <f t="shared" si="6"/>
@@ -9669,13 +9673,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E173">
         <f t="shared" si="6"/>
@@ -9688,13 +9692,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C174" t="s">
         <v>55</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E174">
         <f t="shared" si="6"/>
@@ -9707,13 +9711,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C175" t="s">
         <v>55</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E175">
         <f t="shared" si="6"/>
@@ -9726,13 +9730,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E176">
         <f t="shared" si="6"/>
@@ -9745,13 +9749,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C177" t="s">
+        <v>363</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C177" t="s">
-        <v>365</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E177">
         <f t="shared" si="6"/>
@@ -9764,13 +9768,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E178">
         <f t="shared" si="6"/>
@@ -9783,13 +9787,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C179" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E179">
         <f t="shared" si="6"/>
@@ -9802,13 +9806,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C180" t="s">
         <v>55</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E180">
         <f t="shared" si="6"/>
@@ -9821,13 +9825,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C181" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E181">
         <f t="shared" si="6"/>
@@ -9840,13 +9844,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" t="s">
+        <v>374</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C182" t="s">
-        <v>376</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="E182">
         <f>IF(ISBLANK(C182),"",0)</f>
@@ -9859,13 +9863,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E183">
         <f t="shared" ref="E183:E246" si="9">IF(ISBLANK(C183),"",0)</f>
@@ -9878,13 +9882,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E184">
         <f t="shared" si="9"/>
@@ -9897,13 +9901,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E185">
         <f t="shared" si="9"/>
@@ -9916,13 +9920,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E186">
         <f t="shared" si="9"/>
@@ -9935,13 +9939,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E187">
         <f t="shared" si="9"/>
@@ -9954,13 +9958,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C188" t="s">
         <v>80</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E188">
         <f t="shared" si="9"/>
@@ -9973,13 +9977,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C189" t="s">
         <v>55</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E189">
         <f t="shared" si="9"/>
@@ -9992,13 +9996,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C190" t="s">
         <v>55</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E190">
         <f t="shared" si="9"/>
@@ -10011,13 +10015,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C191" t="s">
         <v>391</v>
       </c>
-      <c r="C191" t="s">
-        <v>393</v>
-      </c>
       <c r="D191" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E191">
         <f t="shared" si="9"/>
@@ -10030,13 +10034,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E192">
         <f t="shared" si="9"/>
@@ -10049,13 +10053,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C193" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E193">
         <f t="shared" si="9"/>
@@ -10068,13 +10072,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E194">
         <f t="shared" si="9"/>
@@ -10087,13 +10091,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C195" t="s">
+        <v>398</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C195" t="s">
-        <v>400</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="E195">
         <f t="shared" si="9"/>
@@ -10106,13 +10110,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C196" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E196">
         <f t="shared" si="9"/>
@@ -10125,13 +10129,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C197" t="s">
         <v>17</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E197">
         <f t="shared" si="9"/>
@@ -10144,13 +10148,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C198" t="s">
         <v>74</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E198">
         <f t="shared" si="9"/>
@@ -10163,13 +10167,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E199">
         <f t="shared" si="9"/>
@@ -10182,13 +10186,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C200" t="s">
         <v>55</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E200">
         <f t="shared" si="9"/>
@@ -10201,13 +10205,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C201" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E201">
         <f t="shared" si="9"/>
@@ -10220,13 +10224,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C202" t="s">
         <v>77</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E202">
         <f t="shared" si="9"/>
@@ -10239,13 +10243,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C203" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E203">
         <f t="shared" si="9"/>
@@ -10258,13 +10262,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C204" t="s">
         <v>55</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E204">
         <f t="shared" si="9"/>
@@ -10277,13 +10281,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C205" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E205">
         <f t="shared" si="9"/>
@@ -10296,13 +10300,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C206" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E206">
         <f t="shared" si="9"/>
@@ -10315,13 +10319,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E207">
         <f t="shared" si="9"/>
@@ -10334,13 +10338,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E208">
         <f t="shared" si="9"/>
@@ -10353,13 +10357,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E209">
         <f t="shared" si="9"/>
@@ -10372,13 +10376,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E210">
         <f t="shared" si="9"/>
@@ -10391,13 +10395,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E211">
         <f t="shared" si="9"/>
@@ -10410,13 +10414,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C212" t="s">
         <v>74</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E212">
         <f t="shared" si="9"/>
@@ -10429,13 +10433,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E213">
         <f t="shared" si="9"/>
@@ -10448,13 +10452,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C214" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E214">
         <f t="shared" si="9"/>
@@ -10467,13 +10471,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C215" t="s">
         <v>17</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E215">
         <f t="shared" si="9"/>
@@ -10486,13 +10490,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E216">
         <f t="shared" si="9"/>
@@ -10505,13 +10509,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E217">
         <f t="shared" si="9"/>
@@ -10524,13 +10528,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E218">
         <f t="shared" si="9"/>
@@ -10543,13 +10547,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C219" t="s">
         <v>17</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E219">
         <f t="shared" si="9"/>
@@ -10562,13 +10566,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
         <v>55</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E220">
         <f t="shared" si="9"/>
@@ -10581,13 +10585,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C221" t="s">
         <v>17</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E221">
         <f t="shared" si="9"/>
@@ -10600,13 +10604,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C222" t="s">
         <v>55</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E222">
         <f t="shared" si="9"/>
@@ -10619,13 +10623,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E223">
         <f t="shared" si="9"/>
@@ -10638,13 +10642,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C224" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E224">
         <f t="shared" si="9"/>
@@ -10657,13 +10661,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C225" t="s">
+        <v>456</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C225" t="s">
-        <v>458</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="E225">
         <f t="shared" si="9"/>
@@ -10676,13 +10680,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C226" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E226">
         <f t="shared" si="9"/>
@@ -10695,13 +10699,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C227" t="s">
         <v>77</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E227">
         <f t="shared" si="9"/>
@@ -10714,13 +10718,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C228" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E228">
         <f t="shared" si="9"/>
@@ -10733,13 +10737,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E229">
         <f t="shared" si="9"/>
@@ -10752,13 +10756,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E230">
         <f t="shared" si="9"/>
@@ -10771,13 +10775,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C231" t="s">
         <v>17</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E231">
         <f t="shared" si="9"/>
@@ -10790,13 +10794,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E232">
         <f>IF(ISBLANK(C232),"",0)</f>
@@ -10809,13 +10813,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C233" t="s">
         <v>80</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E233">
         <f t="shared" si="9"/>
@@ -10828,13 +10832,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C234" t="s">
         <v>55</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E234">
         <f t="shared" si="9"/>
@@ -10847,13 +10851,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C235" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E235">
         <f t="shared" si="9"/>
@@ -10866,13 +10870,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E236">
         <f t="shared" si="9"/>
@@ -10885,13 +10889,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C237" t="s">
         <v>17</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E237">
         <f t="shared" si="9"/>
@@ -10904,13 +10908,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C238" t="s">
         <v>80</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E238">
         <f t="shared" si="9"/>
@@ -10923,13 +10927,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C239" t="s">
         <v>80</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E239">
         <f t="shared" si="9"/>
@@ -10942,13 +10946,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C240" t="s">
         <v>80</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E240">
         <f t="shared" si="9"/>
@@ -10961,13 +10965,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C241" t="s">
         <v>17</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E241">
         <f t="shared" si="9"/>
@@ -10980,13 +10984,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E242">
         <f t="shared" si="9"/>
@@ -10999,13 +11003,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C243" t="s">
         <v>74</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E243">
         <f t="shared" si="9"/>
@@ -11018,13 +11022,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C244" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E244">
         <f t="shared" si="9"/>
@@ -11037,13 +11041,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C245" t="s">
         <v>17</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E245">
         <f t="shared" si="9"/>
@@ -11056,13 +11060,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C246" t="s">
         <v>17</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E246">
         <f t="shared" si="9"/>
@@ -11075,13 +11079,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C247" t="s">
         <v>80</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E247">
         <f t="shared" ref="E247:E310" si="11">IF(ISBLANK(C247),"",0)</f>
@@ -11094,13 +11098,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C248" t="s">
         <v>17</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E248">
         <f t="shared" si="11"/>
@@ -11113,13 +11117,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C249" t="s">
         <v>80</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E249">
         <f t="shared" si="11"/>
@@ -11132,13 +11136,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C250" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E250">
         <f t="shared" si="11"/>
@@ -11151,13 +11155,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C251" t="s">
+        <v>502</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="C251" t="s">
-        <v>504</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="E251">
         <f t="shared" si="11"/>
@@ -11170,13 +11174,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C252" t="s">
         <v>80</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E252">
         <f t="shared" si="11"/>
@@ -11189,13 +11193,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C253" t="s">
         <v>77</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E253">
         <f t="shared" si="11"/>
@@ -11208,13 +11212,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C254" t="s">
         <v>80</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E254">
         <f t="shared" si="11"/>
@@ -11227,13 +11231,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C255" t="s">
         <v>17</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E255">
         <f t="shared" si="11"/>
@@ -11246,13 +11250,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C256" t="s">
         <v>17</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E256">
         <f t="shared" si="11"/>
@@ -11265,13 +11269,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C257" t="s">
         <v>17</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E257">
         <f t="shared" si="11"/>
@@ -11284,13 +11288,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C258" t="s">
         <v>17</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E258">
         <f t="shared" si="11"/>
@@ -11303,13 +11307,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C259" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E259">
         <f t="shared" si="11"/>
@@ -11322,13 +11326,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C260" t="s">
         <v>17</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E260">
         <f t="shared" si="11"/>
@@ -11341,13 +11345,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E261">
         <f t="shared" si="11"/>
@@ -11360,13 +11364,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C262" t="s">
         <v>17</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E262">
         <f t="shared" si="11"/>
@@ -11379,13 +11383,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C263" t="s">
         <v>17</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E263">
         <f t="shared" si="11"/>
@@ -11398,13 +11402,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C264" t="s">
         <v>80</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E264">
         <f t="shared" si="11"/>
@@ -11417,13 +11421,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C265" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E265">
         <f t="shared" si="11"/>
@@ -11436,13 +11440,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C266" t="s">
         <v>80</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E266">
         <f t="shared" si="11"/>
@@ -11455,13 +11459,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C267" t="s">
         <v>55</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E267">
         <f t="shared" si="11"/>
@@ -11474,13 +11478,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C268" t="s">
         <v>55</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E268">
         <f t="shared" si="11"/>
@@ -11493,13 +11497,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C269" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E269">
         <f t="shared" si="11"/>
@@ -11512,13 +11516,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C270" t="s">
+        <v>534</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C270" t="s">
-        <v>536</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="E270">
         <f t="shared" si="11"/>
@@ -11531,13 +11535,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C271" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E271">
         <f t="shared" si="11"/>
@@ -11550,13 +11554,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C272" t="s">
         <v>80</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E272">
         <f t="shared" si="11"/>
@@ -11569,13 +11573,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C273" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E273">
         <f t="shared" si="11"/>
@@ -11588,13 +11592,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E274">
         <f t="shared" si="11"/>
@@ -11607,13 +11611,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E275">
         <f t="shared" si="11"/>
@@ -11626,13 +11630,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C276" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E276">
         <f t="shared" si="11"/>
@@ -11645,13 +11649,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C277" t="s">
+        <v>550</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C277" t="s">
-        <v>552</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="E277">
         <f t="shared" si="11"/>
@@ -11664,13 +11668,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C278" t="s">
         <v>80</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E278">
         <f t="shared" si="11"/>
@@ -11683,13 +11687,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C279" t="s">
         <v>17</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E279">
         <f t="shared" si="11"/>
@@ -11702,13 +11706,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E280">
         <f t="shared" si="11"/>
@@ -11721,13 +11725,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C281" t="s">
         <v>55</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E281">
         <f t="shared" si="11"/>
@@ -11740,13 +11744,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E282">
         <f t="shared" si="11"/>
@@ -11759,13 +11763,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C283" t="s">
         <v>55</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E283">
         <f t="shared" si="11"/>
@@ -11778,13 +11782,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C284" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E284">
         <f t="shared" si="11"/>
@@ -11797,13 +11801,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C285" t="s">
         <v>55</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E285">
         <f t="shared" si="11"/>
@@ -11816,13 +11820,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C286" t="s">
+        <v>125</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="C286" t="s">
-        <v>127</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="E286">
         <f t="shared" si="11"/>
@@ -11835,13 +11839,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C287" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E287">
         <f t="shared" si="11"/>
@@ -11854,13 +11858,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C288" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E288">
         <f t="shared" si="11"/>
@@ -11873,13 +11877,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C289" t="s">
         <v>55</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E289">
         <f t="shared" si="11"/>
@@ -11892,13 +11896,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C290" t="s">
         <v>80</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E290">
         <f t="shared" si="11"/>
@@ -11911,13 +11915,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C291" t="s">
         <v>55</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E291">
         <f t="shared" si="11"/>
@@ -11930,13 +11934,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C292" t="s">
         <v>80</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E292">
         <f t="shared" si="11"/>
@@ -11949,13 +11953,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C293" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E293">
         <f t="shared" si="11"/>
@@ -11968,13 +11972,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E294">
         <f t="shared" si="11"/>
@@ -11987,13 +11991,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C295" t="s">
         <v>55</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E295">
         <f t="shared" si="11"/>
@@ -12006,13 +12010,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C296" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E296">
         <f t="shared" si="11"/>
@@ -12025,13 +12029,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C297" t="s">
         <v>17</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E297">
         <f t="shared" si="11"/>
@@ -12044,13 +12048,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E298">
         <f t="shared" si="11"/>
@@ -12063,13 +12067,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C299" t="s">
         <v>17</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E299">
         <f t="shared" si="11"/>
@@ -12082,13 +12086,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C300" t="s">
         <v>55</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E300">
         <f t="shared" si="11"/>
@@ -12101,13 +12105,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C301" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E301">
         <f t="shared" si="11"/>
@@ -12120,13 +12124,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C302" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E302">
         <f t="shared" si="11"/>
@@ -12139,13 +12143,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C303" t="s">
         <v>74</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E303">
         <f t="shared" si="11"/>
@@ -12158,13 +12162,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C304" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E304">
         <f t="shared" si="11"/>
@@ -12177,13 +12181,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C305" t="s">
         <v>80</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E305">
         <f t="shared" si="11"/>
@@ -12196,13 +12200,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C306" t="s">
         <v>74</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E306">
         <f t="shared" si="11"/>
@@ -12215,13 +12219,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E307">
         <f t="shared" si="11"/>
@@ -12234,13 +12238,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C308" t="s">
         <v>17</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E308">
         <f t="shared" si="11"/>
@@ -12253,13 +12257,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C309" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E309">
         <f t="shared" si="11"/>
@@ -12272,13 +12276,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C310" t="s">
         <v>17</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E310">
         <f t="shared" si="11"/>
@@ -12291,13 +12295,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C311" t="s">
         <v>17</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E311">
         <f t="shared" ref="E311:E374" si="13">IF(ISBLANK(C311),"",0)</f>
@@ -12310,13 +12314,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E312">
         <f t="shared" si="13"/>
@@ -12329,13 +12333,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C313" t="s">
         <v>17</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E313">
         <f t="shared" si="13"/>
@@ -12348,13 +12352,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C314" t="s">
         <v>17</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E314">
         <f t="shared" si="13"/>
@@ -12367,13 +12371,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C315" t="s">
         <v>55</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E315">
         <f t="shared" si="13"/>
@@ -12386,13 +12390,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C316" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E316">
         <f t="shared" si="13"/>
@@ -12405,13 +12409,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C317" t="s">
         <v>80</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E317">
         <f t="shared" si="13"/>
@@ -12424,13 +12428,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E318">
         <f t="shared" si="13"/>
@@ -12443,13 +12447,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C319" t="s">
         <v>17</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E319">
         <f t="shared" si="13"/>
@@ -12462,13 +12466,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E320">
         <f t="shared" si="13"/>
@@ -12481,13 +12485,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E321">
         <f t="shared" si="13"/>
@@ -12500,13 +12504,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C322" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E322">
         <f t="shared" si="13"/>
@@ -12519,13 +12523,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C323" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E323">
         <f t="shared" si="13"/>
@@ -12538,13 +12542,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C324" t="s">
         <v>74</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E324">
         <f t="shared" si="13"/>
@@ -12557,13 +12561,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C325" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E325">
         <f t="shared" si="13"/>
@@ -12576,13 +12580,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C326" t="s">
         <v>17</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E326">
         <f t="shared" si="13"/>
@@ -12595,13 +12599,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C327" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E327">
         <f t="shared" si="13"/>
@@ -12614,13 +12618,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E328">
         <f t="shared" si="13"/>
@@ -12633,13 +12637,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C329" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E329">
         <f t="shared" si="13"/>
@@ -12652,13 +12656,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C330" t="s">
         <v>55</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E330">
         <f t="shared" si="13"/>
@@ -12671,13 +12675,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C331" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E331">
         <f t="shared" si="13"/>
@@ -12690,13 +12694,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C332" t="s">
         <v>77</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E332">
         <f t="shared" si="13"/>
@@ -12709,13 +12713,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E333">
         <f t="shared" si="13"/>
@@ -12728,13 +12732,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C334" t="s">
         <v>80</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E334">
         <f t="shared" si="13"/>
@@ -12747,13 +12751,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C335" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E335">
         <f t="shared" si="13"/>
@@ -12766,13 +12770,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C336" t="s">
         <v>77</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E336">
         <f t="shared" si="13"/>
@@ -12785,13 +12789,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C337" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E337">
         <f t="shared" si="13"/>
@@ -12804,13 +12808,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C338" t="s">
         <v>55</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E338">
         <f t="shared" si="13"/>
@@ -12823,13 +12827,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C339" t="s">
         <v>55</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E339">
         <f t="shared" si="13"/>
@@ -12842,13 +12846,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C340" t="s">
         <v>55</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E340">
         <f t="shared" si="13"/>
@@ -12861,13 +12865,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C341" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E341">
         <f t="shared" si="13"/>
@@ -12880,13 +12884,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C342" t="s">
         <v>17</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E342">
         <f t="shared" si="13"/>
@@ -12899,13 +12903,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C343" t="s">
         <v>55</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E343">
         <f t="shared" si="13"/>
@@ -12918,13 +12922,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C344" t="s">
         <v>55</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E344">
         <f t="shared" si="13"/>
@@ -12937,13 +12941,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C345" t="s">
         <v>55</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E345">
         <f t="shared" si="13"/>
@@ -12956,13 +12960,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C346" t="s">
         <v>80</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E346">
         <f t="shared" si="13"/>
@@ -12975,13 +12979,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C347" t="s">
         <v>17</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E347">
         <f t="shared" si="13"/>
@@ -12994,13 +12998,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C348" t="s">
         <v>55</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E348">
         <f t="shared" si="13"/>
@@ -13013,13 +13017,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E349">
         <f t="shared" si="13"/>
@@ -13032,13 +13036,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C350" t="s">
         <v>17</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E350">
         <f t="shared" si="13"/>
@@ -13051,13 +13055,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C351" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E351">
         <f t="shared" si="13"/>
@@ -13070,13 +13074,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C352" t="s">
         <v>17</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E352">
         <f t="shared" si="13"/>
@@ -13089,13 +13093,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C353" t="s">
         <v>6</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E353">
         <f t="shared" si="13"/>
@@ -13108,13 +13112,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C354" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E354">
         <f t="shared" si="13"/>
@@ -13127,13 +13131,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C355" t="s">
         <v>77</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E355">
         <f t="shared" si="13"/>
@@ -13146,13 +13150,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C356" t="s">
         <v>80</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E356">
         <f t="shared" si="13"/>
@@ -13165,13 +13169,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C357" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E357">
         <f t="shared" si="13"/>
@@ -13184,13 +13188,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C358" t="s">
         <v>17</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E358">
         <f t="shared" si="13"/>
@@ -13203,13 +13207,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C359" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E359">
         <f t="shared" si="13"/>
@@ -13222,13 +13226,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C360" t="s">
         <v>17</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E360">
         <f t="shared" si="13"/>
@@ -13241,13 +13245,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C361" t="s">
         <v>74</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E361">
         <f t="shared" si="13"/>
@@ -13260,13 +13264,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C362" t="s">
         <v>77</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E362">
         <f t="shared" si="13"/>
@@ -13279,13 +13283,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C363" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E363">
         <f t="shared" si="13"/>
@@ -13298,13 +13302,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C364" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E364">
         <f t="shared" si="13"/>
@@ -13317,13 +13321,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C365" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E365">
         <f t="shared" si="13"/>
@@ -13336,13 +13340,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C366" t="s">
         <v>55</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E366">
         <f t="shared" si="13"/>
@@ -13355,13 +13359,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C367" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E367">
         <f t="shared" si="13"/>
@@ -13374,13 +13378,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C368" t="s">
         <v>55</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E368">
         <f t="shared" si="13"/>
@@ -13393,13 +13397,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C369" t="s">
         <v>80</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E369">
         <f t="shared" si="13"/>
@@ -13412,13 +13416,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E370">
         <f t="shared" si="13"/>
@@ -13431,13 +13435,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E371">
         <f t="shared" si="13"/>
@@ -13450,13 +13454,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C372" t="s">
         <v>17</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E372">
         <f t="shared" si="13"/>
@@ -13469,13 +13473,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>680</v>
+        <v>914</v>
       </c>
       <c r="C373" t="s">
         <v>55</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E373">
         <f t="shared" si="13"/>
@@ -13488,13 +13492,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E374">
         <f t="shared" si="13"/>
@@ -13507,13 +13511,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C375" t="s">
         <v>80</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E375">
         <f t="shared" ref="E375:E438" si="15">IF(ISBLANK(C375),"",0)</f>
@@ -13526,13 +13530,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C376" t="s">
         <v>17</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E376">
         <f t="shared" si="15"/>
@@ -13545,13 +13549,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C377" t="s">
         <v>17</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E377">
         <f t="shared" si="15"/>
@@ -13564,13 +13568,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C378" t="s">
         <v>80</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E378">
         <f t="shared" si="15"/>
@@ -13583,13 +13587,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C379" t="s">
         <v>17</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E379">
         <f t="shared" si="15"/>
@@ -13602,13 +13606,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C380" t="s">
         <v>77</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E380">
         <f t="shared" si="15"/>
@@ -13621,13 +13625,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C381" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E381">
         <f t="shared" si="15"/>
@@ -13640,13 +13644,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C382" t="s">
         <v>17</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E382">
         <f t="shared" si="15"/>
@@ -13659,13 +13663,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C383" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E383">
         <f t="shared" si="15"/>
@@ -13678,13 +13682,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C384" t="s">
         <v>55</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E384">
         <f t="shared" si="15"/>
@@ -13697,13 +13701,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C385" t="s">
         <v>6</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E385">
         <f t="shared" si="15"/>
@@ -13716,13 +13720,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C386" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E386">
         <f t="shared" si="15"/>
@@ -13735,13 +13739,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C387" t="s">
+        <v>754</v>
+      </c>
+      <c r="D387" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="C387" t="s">
-        <v>756</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="E387">
         <f t="shared" si="15"/>
@@ -13754,13 +13758,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C388" t="s">
+        <v>757</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C388" t="s">
-        <v>759</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="E388">
         <f t="shared" si="15"/>
@@ -13773,13 +13777,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C389" t="s">
         <v>80</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E389">
         <f t="shared" si="15"/>
@@ -13792,13 +13796,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C390" t="s">
         <v>55</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E390">
         <f t="shared" si="15"/>
@@ -13811,13 +13815,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C391" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E391">
         <f t="shared" si="15"/>
@@ -13830,13 +13834,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C392" t="s">
         <v>55</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E392">
         <f t="shared" si="15"/>
@@ -13849,13 +13853,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C393" t="s">
         <v>17</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E393">
         <f t="shared" si="15"/>
@@ -13868,13 +13872,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C394" t="s">
         <v>80</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E394">
         <f t="shared" si="15"/>
@@ -13887,13 +13891,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C395" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E395">
         <f t="shared" si="15"/>
@@ -13906,13 +13910,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C396" t="s">
+        <v>776</v>
+      </c>
+      <c r="D396" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="C396" t="s">
-        <v>778</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="E396">
         <f t="shared" si="15"/>
@@ -13925,13 +13929,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C397" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E397">
         <f t="shared" si="15"/>
@@ -13944,13 +13948,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C398" t="s">
         <v>80</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E398">
         <f t="shared" si="15"/>
@@ -13963,13 +13967,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C399" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E399">
         <f t="shared" si="15"/>
@@ -13982,13 +13986,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C400" t="s">
+        <v>785</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C400" t="s">
-        <v>787</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="E400">
         <f t="shared" si="15"/>
@@ -14001,13 +14005,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C401" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E401">
         <f t="shared" si="15"/>
@@ -14020,13 +14024,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C402" t="s">
         <v>80</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E402">
         <f t="shared" si="15"/>
@@ -14039,13 +14043,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C403" t="s">
         <v>6</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E403">
         <f t="shared" si="15"/>
@@ -14058,13 +14062,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C404" t="s">
+        <v>795</v>
+      </c>
+      <c r="D404" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="C404" t="s">
-        <v>797</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="E404">
         <f t="shared" si="15"/>
@@ -14077,13 +14081,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C405" t="s">
         <v>55</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E405">
         <f t="shared" si="15"/>
@@ -14096,13 +14100,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C406" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E406">
         <f t="shared" si="15"/>
@@ -14115,13 +14119,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C407" t="s">
         <v>6</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E407">
         <f t="shared" si="15"/>
@@ -14134,13 +14138,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C408" t="s">
         <v>80</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E408">
         <f t="shared" si="15"/>
@@ -14153,13 +14157,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C409" t="s">
         <v>6</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E409">
         <f t="shared" si="15"/>
@@ -14172,13 +14176,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C410" t="s">
         <v>6</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E410">
         <f t="shared" si="15"/>
@@ -14191,13 +14195,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C411" t="s">
         <v>55</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E411">
         <f t="shared" si="15"/>
@@ -14210,13 +14214,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C412" t="s">
+        <v>812</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="C412" t="s">
-        <v>814</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="E412">
         <f t="shared" si="15"/>
@@ -14229,13 +14233,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C413" t="s">
         <v>55</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E413">
         <f t="shared" si="15"/>
@@ -14248,13 +14252,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C414" t="s">
         <v>17</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E414">
         <f t="shared" si="15"/>
@@ -14267,13 +14271,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C415" t="s">
         <v>80</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E415">
         <f t="shared" si="15"/>
@@ -14286,13 +14290,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C416" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E416">
         <f t="shared" si="15"/>
@@ -14305,13 +14309,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C417" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E417">
         <f t="shared" si="15"/>
@@ -14324,13 +14328,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C418" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E418">
         <f t="shared" si="15"/>
@@ -14343,13 +14347,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C419" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E419">
         <f t="shared" si="15"/>
@@ -14362,13 +14366,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C420" t="s">
         <v>77</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E420">
         <f t="shared" si="15"/>
@@ -14381,13 +14385,13 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C421" t="s">
         <v>6</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E421">
         <f t="shared" si="15"/>
@@ -14400,13 +14404,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C422" t="s">
         <v>55</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E422">
         <f t="shared" si="15"/>
@@ -14419,13 +14423,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C423" t="s">
         <v>55</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E423">
         <f t="shared" si="15"/>
@@ -14438,13 +14442,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C424" t="s">
         <v>6</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E424">
         <f t="shared" si="15"/>
@@ -14457,13 +14461,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C425" t="s">
         <v>17</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E425">
         <f t="shared" si="15"/>
@@ -14476,13 +14480,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C426" t="s">
         <v>17</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E426">
         <f t="shared" si="15"/>
@@ -14495,13 +14499,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C427" t="s">
+        <v>866</v>
+      </c>
+      <c r="D427" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C427" t="s">
-        <v>868</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="E427">
         <f t="shared" si="15"/>
@@ -14514,10 +14518,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C428" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D428" s="1" t="str">
         <f t="shared" ref="D428:D429" si="17">_xlfn.CONCAT("Answer is ",C428,".")</f>
@@ -14534,7 +14538,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C429" t="s">
         <v>77</v>
@@ -14554,13 +14558,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C430" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E430">
         <f t="shared" si="15"/>
@@ -14573,13 +14577,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C431" t="s">
         <v>55</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E431">
         <f t="shared" si="15"/>
@@ -14592,13 +14596,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C432" t="s">
         <v>77</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E432">
         <f t="shared" si="15"/>
@@ -14611,13 +14615,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C433" t="s">
         <v>17</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E433">
         <f t="shared" si="15"/>
@@ -14630,13 +14634,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C434" t="s">
         <v>80</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E434">
         <f t="shared" si="15"/>
@@ -14649,13 +14653,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C435" t="s">
         <v>77</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E435">
         <f t="shared" si="15"/>
@@ -14668,13 +14672,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C436" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E436">
         <f t="shared" si="15"/>
@@ -14687,13 +14691,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C437" t="s">
         <v>6</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E437">
         <f t="shared" si="15"/>
@@ -14706,13 +14710,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C438" t="s">
         <v>17</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E438">
         <f t="shared" si="15"/>
@@ -14725,13 +14729,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C439" t="s">
         <v>80</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E439">
         <f t="shared" ref="E439:E463" si="18">IF(ISBLANK(C439),"",0)</f>
@@ -14744,13 +14748,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C440" t="s">
         <v>55</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E440">
         <f t="shared" si="18"/>
@@ -14763,7 +14767,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C441" t="s">
         <v>6</v>
@@ -14783,13 +14787,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E442">
         <f t="shared" si="18"/>
@@ -14802,13 +14806,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C443" t="s">
         <v>55</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E443">
         <f t="shared" si="18"/>
@@ -14821,13 +14825,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C444" t="s">
+        <v>852</v>
+      </c>
+      <c r="D444" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="C444" t="s">
-        <v>854</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="E444">
         <f t="shared" si="18"/>
@@ -14840,10 +14844,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C445" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D445" s="1" t="str">
         <f>_xlfn.CONCAT("Answer is ",C445,".")</f>
@@ -14860,13 +14864,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C446" t="s">
+        <v>855</v>
+      </c>
+      <c r="D446" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="C446" t="s">
-        <v>857</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="E446">
         <f t="shared" si="18"/>
@@ -14879,13 +14883,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C447" t="s">
         <v>17</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E447">
         <f t="shared" si="18"/>
@@ -14898,13 +14902,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C448" t="s">
         <v>55</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E448">
         <f t="shared" si="18"/>
@@ -14917,10 +14921,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C449" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D449" s="1" t="str">
         <f>_xlfn.CONCAT("Answer is ",C449,".")</f>
@@ -14937,13 +14941,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C450" t="s">
         <v>17</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E450">
         <f t="shared" si="18"/>
@@ -14956,13 +14960,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C451" t="s">
         <v>6</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E451">
         <f t="shared" si="18"/>
@@ -14975,13 +14979,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C452" t="s">
         <v>80</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E452">
         <f t="shared" si="18"/>
@@ -14994,10 +14998,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C453" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D453" s="1" t="str">
         <f t="shared" ref="D453:D454" si="20">_xlfn.CONCAT("Answer is ",C453,".")</f>
@@ -15014,10 +15018,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C454" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D454" s="1" t="str">
         <f t="shared" si="20"/>
@@ -15034,13 +15038,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C455" t="s">
         <v>17</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E455">
         <f t="shared" si="18"/>
@@ -15053,10 +15057,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C456" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D456" s="1" t="str">
         <f t="shared" ref="D456:D462" si="21">_xlfn.CONCAT("Answer is ",C456,".")</f>
@@ -15073,7 +15077,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C457" t="s">
         <v>6</v>
@@ -15093,10 +15097,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C458" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D458" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15113,7 +15117,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C459" t="s">
         <v>77</v>
@@ -15133,10 +15137,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C460" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D460" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15153,10 +15157,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C461" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D461" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15173,10 +15177,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C462" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D462" s="1" t="str">
         <f t="shared" si="21"/>
@@ -15193,13 +15197,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C463" t="s">
         <v>55</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E463">
         <f t="shared" si="18"/>
